--- a/MK_Acc_01.xlsx
+++ b/MK_Acc_01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10301"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayadpc\OneDrive\work\cnc\01 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Work\01 CNC Working\07 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_597DE3302A876C1D7D973DC54BF382C19A72A441" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,7 +653,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1151,7 +1150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1450,33 +1449,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.171875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="1"/>
-    <col min="5" max="5" width="8.609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.02734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.14453125" style="14"/>
-    <col min="8" max="8" width="9.14453125" style="1"/>
-    <col min="9" max="9" width="11.02734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.22265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.97265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.14453125" style="1"/>
-    <col min="14" max="14" width="11.1640625" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="9.14453125" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="11.140625" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1575,7 +1574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1583,19 +1582,19 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="25.9609375" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="11.02734375" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.64453125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.64453125" style="76" customWidth="1"/>
-    <col min="8" max="9" width="12.64453125" style="49" customWidth="1"/>
-    <col min="10" max="16384" width="9.14453125" style="18"/>
+    <col min="1" max="1" width="6.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="26" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="11" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="76" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="49" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1643,7 +1642,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -1662,7 +1661,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -1681,7 +1680,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1700,7 +1699,7 @@
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
     </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -1719,7 +1718,7 @@
       </c>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>5</v>
       </c>
@@ -1738,7 +1737,7 @@
       </c>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>4</v>
       </c>
@@ -1757,7 +1756,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>4</v>
       </c>
@@ -1776,7 +1775,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -1795,7 +1794,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>4</v>
       </c>
@@ -1814,7 +1813,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>5</v>
       </c>
@@ -1833,7 +1832,7 @@
       </c>
       <c r="I12" s="47"/>
     </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>5</v>
       </c>
@@ -1852,7 +1851,7 @@
       </c>
       <c r="I13" s="47"/>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>5</v>
       </c>
@@ -1871,7 +1870,7 @@
       </c>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>5</v>
       </c>
@@ -1890,7 +1889,7 @@
       </c>
       <c r="I15" s="47"/>
     </row>
-    <row r="16" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>5</v>
       </c>
@@ -1909,7 +1908,7 @@
       </c>
       <c r="I16" s="47"/>
     </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>5</v>
       </c>
@@ -1928,7 +1927,7 @@
       </c>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>5</v>
       </c>
@@ -1947,7 +1946,7 @@
       </c>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>5</v>
       </c>
@@ -1966,7 +1965,7 @@
       </c>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>4</v>
       </c>
@@ -1985,7 +1984,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>5</v>
       </c>
@@ -2004,7 +2003,7 @@
       </c>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>4</v>
       </c>
@@ -2023,7 +2022,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>5</v>
       </c>
@@ -2042,7 +2041,7 @@
       </c>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>4</v>
       </c>
@@ -2061,7 +2060,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>5</v>
       </c>
@@ -2080,7 +2079,7 @@
       </c>
       <c r="I25" s="47"/>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>4</v>
       </c>
@@ -2099,7 +2098,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>5</v>
       </c>
@@ -2118,7 +2117,7 @@
       </c>
       <c r="I27" s="47"/>
     </row>
-    <row r="28" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>3</v>
       </c>
@@ -2137,7 +2136,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>4</v>
       </c>
@@ -2156,7 +2155,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>5</v>
       </c>
@@ -2175,7 +2174,7 @@
       </c>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>5</v>
       </c>
@@ -2194,7 +2193,7 @@
       </c>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>4</v>
       </c>
@@ -2213,7 +2212,7 @@
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
     </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>4</v>
       </c>
@@ -2232,7 +2231,7 @@
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>5</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="I34" s="47"/>
     </row>
-    <row r="35" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>4</v>
       </c>
@@ -2270,7 +2269,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>5</v>
       </c>
@@ -2289,7 +2288,7 @@
       </c>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>5</v>
       </c>
@@ -2308,7 +2307,7 @@
       </c>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>4</v>
       </c>
@@ -2327,7 +2326,7 @@
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>5</v>
       </c>
@@ -2346,7 +2345,7 @@
       </c>
       <c r="I39" s="47"/>
     </row>
-    <row r="40" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>2</v>
       </c>
@@ -2365,7 +2364,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>3</v>
       </c>
@@ -2384,7 +2383,7 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>4</v>
       </c>
@@ -2403,7 +2402,7 @@
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
     </row>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>5</v>
       </c>
@@ -2422,7 +2421,7 @@
       </c>
       <c r="I43" s="47"/>
     </row>
-    <row r="44" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>5</v>
       </c>
@@ -2441,7 +2440,7 @@
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <v>2</v>
       </c>
@@ -2460,7 +2459,7 @@
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
     </row>
-    <row r="46" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>1</v>
       </c>
@@ -2479,7 +2478,7 @@
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
     </row>
-    <row r="47" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <v>2</v>
       </c>
@@ -2498,7 +2497,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>2</v>
       </c>
@@ -2517,7 +2516,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
-    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>3</v>
       </c>
@@ -2536,7 +2535,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>4</v>
       </c>
@@ -2555,7 +2554,7 @@
       <c r="H50" s="46"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>5</v>
       </c>
@@ -2574,7 +2573,7 @@
       </c>
       <c r="I51" s="47"/>
     </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>5</v>
       </c>
@@ -2593,7 +2592,7 @@
       </c>
       <c r="I52" s="47"/>
     </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>5</v>
       </c>
@@ -2612,7 +2611,7 @@
       </c>
       <c r="I53" s="47"/>
     </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>5</v>
       </c>
@@ -2631,7 +2630,7 @@
       </c>
       <c r="I54" s="47"/>
     </row>
-    <row r="55" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>5</v>
       </c>
@@ -2650,7 +2649,7 @@
       </c>
       <c r="I55" s="47"/>
     </row>
-    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>1</v>
       </c>
@@ -2669,7 +2668,7 @@
       <c r="H56" s="43"/>
       <c r="I56" s="43"/>
     </row>
-    <row r="57" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <v>2</v>
       </c>
@@ -2688,7 +2687,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>3</v>
       </c>
@@ -2707,7 +2706,7 @@
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>4</v>
       </c>
@@ -2726,7 +2725,7 @@
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>5</v>
       </c>
@@ -2745,7 +2744,7 @@
       </c>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>5</v>
       </c>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>5</v>
       </c>
@@ -2783,7 +2782,7 @@
       </c>
       <c r="I62" s="47"/>
     </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>5</v>
       </c>
@@ -2802,7 +2801,7 @@
       </c>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>5</v>
       </c>
@@ -2821,7 +2820,7 @@
       </c>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>5</v>
       </c>
@@ -2840,7 +2839,7 @@
       </c>
       <c r="I65" s="47"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>5</v>
       </c>
@@ -2859,7 +2858,7 @@
       </c>
       <c r="I66" s="47"/>
     </row>
-    <row r="67" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>5</v>
       </c>
@@ -2878,7 +2877,7 @@
       </c>
       <c r="I67" s="47"/>
     </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>5</v>
       </c>
@@ -2897,7 +2896,7 @@
       </c>
       <c r="I68" s="47"/>
     </row>
-    <row r="69" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>5</v>
       </c>
@@ -2916,7 +2915,7 @@
       </c>
       <c r="I69" s="47"/>
     </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>5</v>
       </c>
@@ -2935,7 +2934,7 @@
       </c>
       <c r="I70" s="47"/>
     </row>
-    <row r="71" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>5</v>
       </c>
@@ -2954,7 +2953,7 @@
       </c>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>3</v>
       </c>
@@ -2973,7 +2972,7 @@
       <c r="H72" s="45"/>
       <c r="I72" s="45"/>
     </row>
-    <row r="73" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>4</v>
       </c>
@@ -2992,7 +2991,7 @@
       <c r="H73" s="46"/>
       <c r="I73" s="46"/>
     </row>
-    <row r="74" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>5</v>
       </c>
@@ -3011,7 +3010,7 @@
       </c>
       <c r="I74" s="47"/>
     </row>
-    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>4</v>
       </c>
@@ -3030,7 +3029,7 @@
       <c r="H75" s="46"/>
       <c r="I75" s="46"/>
     </row>
-    <row r="76" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>5</v>
       </c>
@@ -3049,7 +3048,7 @@
       </c>
       <c r="I76" s="47"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>1</v>
       </c>
@@ -3058,33 +3057,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I77" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I77"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.14453125" style="27"/>
-    <col min="2" max="2" width="14.390625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22.734375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="9.14453125" style="24"/>
-    <col min="7" max="7" width="10.89453125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.43359375" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.14453125" style="24"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="24"/>
+    <col min="7" max="7" width="10.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
         <v>45</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>35</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
         <v>37</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
         <v>40</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>43</v>
       </c>
@@ -3232,7 +3231,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:D12">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -3246,20 +3245,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.24609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="21">
         <f>SUM(B3:B1000000)</f>
@@ -3268,7 +3267,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -3295,23 +3294,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.14453125" style="1"/>
-    <col min="2" max="3" width="18.16015625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.50390625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14453125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3334,27 +3333,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:A211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.95703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.64453125" style="87" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" style="88" customWidth="1"/>
-    <col min="4" max="4" width="11.97265625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="9.14453125" style="47"/>
-    <col min="6" max="6" width="68.60546875" style="90" customWidth="1"/>
-    <col min="7" max="16384" width="9.14453125" style="18"/>
+    <col min="1" max="1" width="4" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="87" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="88" customWidth="1"/>
+    <col min="4" max="4" width="12" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="47"/>
+    <col min="6" max="6" width="68.5703125" style="90" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="79">
         <f>SUM(B3:B1000000)</f>
         <v>1926</v>
@@ -3365,7 +3364,7 @@
       </c>
       <c r="D1" s="89"/>
     </row>
-    <row r="2" spans="1:6" s="81" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="81" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>71</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>54</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -4335,8 +4334,743 @@
         <v>201</v>
       </c>
     </row>
-    <row r="214" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="153" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="18">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="18">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="18">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="18">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="18">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="18">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="18">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="18">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="18">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="18">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="18">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="18">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="18">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="18">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="18">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="18">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="18">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="18">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="18">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="18">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="18">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="18">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="18">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="18">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="18">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="18">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="18">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="18">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="18">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="18">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="18">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="18">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="18">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="18">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -4348,7 +5082,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>دليل!$K$1:$K$3</xm:f>
           </x14:formula1>

--- a/MK_Acc_01.xlsx
+++ b/MK_Acc_01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10301"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Work\01 CNC Working\07 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayadpc\OneDrive\work\cnc\01 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_597DE3302A876C1D7D973DC54BF382C19A72A441" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,7 +654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1150,7 +1151,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1449,33 +1450,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="11.140625" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.9765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.14453125" style="1"/>
+    <col min="5" max="5" width="8.609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.02734375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.14453125" style="14"/>
+    <col min="8" max="8" width="9.14453125" style="1"/>
+    <col min="9" max="9" width="11.02734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.22265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.97265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.14453125" style="1"/>
+    <col min="14" max="14" width="11.1640625" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="9.14453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1574,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1582,19 +1583,19 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="26" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="66" customWidth="1"/>
-    <col min="4" max="4" width="11" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="76" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="49" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="6.1875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="25.9609375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.64453125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="11.02734375" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.64453125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.64453125" style="76" customWidth="1"/>
+    <col min="8" max="9" width="12.64453125" style="49" customWidth="1"/>
+    <col min="10" max="16384" width="9.14453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1642,7 +1643,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -1661,7 +1662,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -1680,7 +1681,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1699,7 +1700,7 @@
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
     </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -1718,7 +1719,7 @@
       </c>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
         <v>5</v>
       </c>
@@ -1737,7 +1738,7 @@
       </c>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39">
         <v>4</v>
       </c>
@@ -1756,7 +1757,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39">
         <v>4</v>
       </c>
@@ -1775,7 +1776,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -1794,7 +1795,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39">
         <v>4</v>
       </c>
@@ -1813,7 +1814,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
         <v>5</v>
       </c>
@@ -1832,7 +1833,7 @@
       </c>
       <c r="I12" s="47"/>
     </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
         <v>5</v>
       </c>
@@ -1851,7 +1852,7 @@
       </c>
       <c r="I13" s="47"/>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40">
         <v>5</v>
       </c>
@@ -1870,7 +1871,7 @@
       </c>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40">
         <v>5</v>
       </c>
@@ -1889,7 +1890,7 @@
       </c>
       <c r="I15" s="47"/>
     </row>
-    <row r="16" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40">
         <v>5</v>
       </c>
@@ -1908,7 +1909,7 @@
       </c>
       <c r="I16" s="47"/>
     </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40">
         <v>5</v>
       </c>
@@ -1927,7 +1928,7 @@
       </c>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40">
         <v>5</v>
       </c>
@@ -1946,7 +1947,7 @@
       </c>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="40">
         <v>5</v>
       </c>
@@ -1965,7 +1966,7 @@
       </c>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>4</v>
       </c>
@@ -1984,7 +1985,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40">
         <v>5</v>
       </c>
@@ -2003,7 +2004,7 @@
       </c>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
         <v>4</v>
       </c>
@@ -2022,7 +2023,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="40">
         <v>5</v>
       </c>
@@ -2041,7 +2042,7 @@
       </c>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39">
         <v>4</v>
       </c>
@@ -2060,7 +2061,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40">
         <v>5</v>
       </c>
@@ -2079,7 +2080,7 @@
       </c>
       <c r="I25" s="47"/>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>4</v>
       </c>
@@ -2098,7 +2099,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40">
         <v>5</v>
       </c>
@@ -2117,7 +2118,7 @@
       </c>
       <c r="I27" s="47"/>
     </row>
-    <row r="28" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38">
         <v>3</v>
       </c>
@@ -2136,7 +2137,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>4</v>
       </c>
@@ -2155,7 +2156,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40">
         <v>5</v>
       </c>
@@ -2174,7 +2175,7 @@
       </c>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="40">
         <v>5</v>
       </c>
@@ -2193,7 +2194,7 @@
       </c>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>4</v>
       </c>
@@ -2212,7 +2213,7 @@
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
     </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41">
         <v>4</v>
       </c>
@@ -2231,7 +2232,7 @@
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="40">
         <v>5</v>
       </c>
@@ -2250,7 +2251,7 @@
       </c>
       <c r="I34" s="47"/>
     </row>
-    <row r="35" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39">
         <v>4</v>
       </c>
@@ -2269,7 +2270,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="40">
         <v>5</v>
       </c>
@@ -2288,7 +2289,7 @@
       </c>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40">
         <v>5</v>
       </c>
@@ -2307,7 +2308,7 @@
       </c>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41">
         <v>4</v>
       </c>
@@ -2326,7 +2327,7 @@
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40">
         <v>5</v>
       </c>
@@ -2345,7 +2346,7 @@
       </c>
       <c r="I39" s="47"/>
     </row>
-    <row r="40" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37">
         <v>2</v>
       </c>
@@ -2364,7 +2365,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="38">
         <v>3</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="41">
         <v>4</v>
       </c>
@@ -2402,7 +2403,7 @@
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
     </row>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40">
         <v>5</v>
       </c>
@@ -2421,7 +2422,7 @@
       </c>
       <c r="I43" s="47"/>
     </row>
-    <row r="44" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40">
         <v>5</v>
       </c>
@@ -2440,7 +2441,7 @@
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37">
         <v>2</v>
       </c>
@@ -2459,7 +2460,7 @@
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
     </row>
-    <row r="46" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36">
         <v>1</v>
       </c>
@@ -2478,7 +2479,7 @@
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
     </row>
-    <row r="47" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37">
         <v>2</v>
       </c>
@@ -2497,7 +2498,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37">
         <v>2</v>
       </c>
@@ -2516,7 +2517,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
-    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
         <v>3</v>
       </c>
@@ -2535,7 +2536,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39">
         <v>4</v>
       </c>
@@ -2554,7 +2555,7 @@
       <c r="H50" s="46"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="40">
         <v>5</v>
       </c>
@@ -2573,7 +2574,7 @@
       </c>
       <c r="I51" s="47"/>
     </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="40">
         <v>5</v>
       </c>
@@ -2592,7 +2593,7 @@
       </c>
       <c r="I52" s="47"/>
     </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="40">
         <v>5</v>
       </c>
@@ -2611,7 +2612,7 @@
       </c>
       <c r="I53" s="47"/>
     </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="40">
         <v>5</v>
       </c>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="I54" s="47"/>
     </row>
-    <row r="55" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="40">
         <v>5</v>
       </c>
@@ -2649,7 +2650,7 @@
       </c>
       <c r="I55" s="47"/>
     </row>
-    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36">
         <v>1</v>
       </c>
@@ -2668,7 +2669,7 @@
       <c r="H56" s="43"/>
       <c r="I56" s="43"/>
     </row>
-    <row r="57" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="37">
         <v>2</v>
       </c>
@@ -2687,7 +2688,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38">
         <v>3</v>
       </c>
@@ -2706,7 +2707,7 @@
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39">
         <v>4</v>
       </c>
@@ -2725,7 +2726,7 @@
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="40">
         <v>5</v>
       </c>
@@ -2744,7 +2745,7 @@
       </c>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>5</v>
       </c>
@@ -2763,7 +2764,7 @@
       </c>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>5</v>
       </c>
@@ -2782,7 +2783,7 @@
       </c>
       <c r="I62" s="47"/>
     </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>5</v>
       </c>
@@ -2801,7 +2802,7 @@
       </c>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="40">
         <v>5</v>
       </c>
@@ -2820,7 +2821,7 @@
       </c>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="40">
         <v>5</v>
       </c>
@@ -2839,7 +2840,7 @@
       </c>
       <c r="I65" s="47"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="40">
         <v>5</v>
       </c>
@@ -2858,7 +2859,7 @@
       </c>
       <c r="I66" s="47"/>
     </row>
-    <row r="67" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="40">
         <v>5</v>
       </c>
@@ -2877,7 +2878,7 @@
       </c>
       <c r="I67" s="47"/>
     </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="40">
         <v>5</v>
       </c>
@@ -2896,7 +2897,7 @@
       </c>
       <c r="I68" s="47"/>
     </row>
-    <row r="69" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="40">
         <v>5</v>
       </c>
@@ -2915,7 +2916,7 @@
       </c>
       <c r="I69" s="47"/>
     </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="40">
         <v>5</v>
       </c>
@@ -2934,7 +2935,7 @@
       </c>
       <c r="I70" s="47"/>
     </row>
-    <row r="71" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="40">
         <v>5</v>
       </c>
@@ -2953,7 +2954,7 @@
       </c>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38">
         <v>3</v>
       </c>
@@ -2972,7 +2973,7 @@
       <c r="H72" s="45"/>
       <c r="I72" s="45"/>
     </row>
-    <row r="73" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39">
         <v>4</v>
       </c>
@@ -2991,7 +2992,7 @@
       <c r="H73" s="46"/>
       <c r="I73" s="46"/>
     </row>
-    <row r="74" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="40">
         <v>5</v>
       </c>
@@ -3010,7 +3011,7 @@
       </c>
       <c r="I74" s="47"/>
     </row>
-    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39">
         <v>4</v>
       </c>
@@ -3029,7 +3030,7 @@
       <c r="H75" s="46"/>
       <c r="I75" s="46"/>
     </row>
-    <row r="76" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="40">
         <v>5</v>
       </c>
@@ -3048,7 +3049,7 @@
       </c>
       <c r="I76" s="47"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="42">
         <v>1</v>
       </c>
@@ -3057,33 +3058,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I77"/>
+  <autoFilter ref="A1:I77" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="24"/>
-    <col min="7" max="7" width="10.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.14453125" style="27"/>
+    <col min="2" max="2" width="14.390625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.734375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="9.14453125" style="24"/>
+    <col min="7" max="7" width="10.89453125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.43359375" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.14453125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>45</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>35</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>37</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
         <v>40</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>42</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>43</v>
       </c>
@@ -3231,7 +3232,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D12">
+  <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -3245,20 +3246,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.24609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="21">
         <f>SUM(B3:B1000000)</f>
@@ -3267,7 +3268,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -3294,23 +3295,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.14453125" style="1"/>
+    <col min="2" max="3" width="18.16015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.50390625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.453125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3333,27 +3334,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:A211"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="87" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="88" customWidth="1"/>
-    <col min="4" max="4" width="12" style="51" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="47"/>
-    <col min="6" max="6" width="68.5703125" style="90" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="2.95703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.64453125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="12.64453125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="11.97265625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9.14453125" style="47"/>
+    <col min="6" max="6" width="68.60546875" style="90" customWidth="1"/>
+    <col min="7" max="16384" width="9.14453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="79">
         <f>SUM(B3:B1000000)</f>
         <v>1926</v>
@@ -3364,7 +3365,7 @@
       </c>
       <c r="D1" s="89"/>
     </row>
-    <row r="2" spans="1:6" s="81" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="81" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
         <v>71</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>54</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -4334,743 +4335,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="18">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="18">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="18">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="18">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="18">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="18">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="18">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="18">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="18">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="18">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="18">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="18">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="18">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="18">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="18">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="18">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="18">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="18">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="18">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="18">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="18">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="18">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="18">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="18">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="18">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="18">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="18">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="18">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="18">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="18">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="18">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="18">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="18">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="18">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="18">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="18">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="18">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="18">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="18">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="18">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="18">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="18">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="18">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="18">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="18">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="18">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="18">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="18">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="18">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="18">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="18">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="18">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="18">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="18">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="18">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="18">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="18">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="18">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="18">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="18">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="18">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="18">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="18">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="18">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="18">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="18">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="18">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="153" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -5082,7 +4348,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>دليل!$K$1:$K$3</xm:f>
           </x14:formula1>

--- a/MK_Acc_01.xlsx
+++ b/MK_Acc_01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10301"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayadpc\OneDrive\work\cnc\01 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_597DE3302A876C1D7D973DC54BF382C19A72A441" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,7 +653,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1151,7 +1150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1450,33 +1449,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.171875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="1"/>
-    <col min="5" max="5" width="8.609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.02734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.14453125" style="14"/>
-    <col min="8" max="8" width="9.14453125" style="1"/>
-    <col min="9" max="9" width="11.02734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.22265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.97265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.14453125" style="1"/>
-    <col min="14" max="14" width="11.1640625" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="9.14453125" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="11.140625" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1575,7 +1574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1583,19 +1582,19 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="25.9609375" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="11.02734375" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.64453125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.64453125" style="76" customWidth="1"/>
-    <col min="8" max="9" width="12.64453125" style="49" customWidth="1"/>
-    <col min="10" max="16384" width="9.14453125" style="18"/>
+    <col min="1" max="1" width="6.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="26" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="11" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="76" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="49" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1643,7 +1642,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -1662,7 +1661,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -1681,7 +1680,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1700,7 +1699,7 @@
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
     </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -1719,7 +1718,7 @@
       </c>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>5</v>
       </c>
@@ -1738,7 +1737,7 @@
       </c>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>4</v>
       </c>
@@ -1757,7 +1756,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>4</v>
       </c>
@@ -1776,7 +1775,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -1795,7 +1794,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>4</v>
       </c>
@@ -1814,7 +1813,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>5</v>
       </c>
@@ -1833,7 +1832,7 @@
       </c>
       <c r="I12" s="47"/>
     </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>5</v>
       </c>
@@ -1852,7 +1851,7 @@
       </c>
       <c r="I13" s="47"/>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>5</v>
       </c>
@@ -1871,7 +1870,7 @@
       </c>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>5</v>
       </c>
@@ -1890,7 +1889,7 @@
       </c>
       <c r="I15" s="47"/>
     </row>
-    <row r="16" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>5</v>
       </c>
@@ -1909,7 +1908,7 @@
       </c>
       <c r="I16" s="47"/>
     </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>5</v>
       </c>
@@ -1928,7 +1927,7 @@
       </c>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>5</v>
       </c>
@@ -1947,7 +1946,7 @@
       </c>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>5</v>
       </c>
@@ -1966,7 +1965,7 @@
       </c>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>4</v>
       </c>
@@ -1985,7 +1984,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>5</v>
       </c>
@@ -2004,7 +2003,7 @@
       </c>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>4</v>
       </c>
@@ -2023,7 +2022,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>5</v>
       </c>
@@ -2042,7 +2041,7 @@
       </c>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>4</v>
       </c>
@@ -2061,7 +2060,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>5</v>
       </c>
@@ -2080,7 +2079,7 @@
       </c>
       <c r="I25" s="47"/>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>4</v>
       </c>
@@ -2099,7 +2098,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>5</v>
       </c>
@@ -2118,7 +2117,7 @@
       </c>
       <c r="I27" s="47"/>
     </row>
-    <row r="28" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>3</v>
       </c>
@@ -2137,7 +2136,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>4</v>
       </c>
@@ -2156,7 +2155,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>5</v>
       </c>
@@ -2175,7 +2174,7 @@
       </c>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>5</v>
       </c>
@@ -2194,7 +2193,7 @@
       </c>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>4</v>
       </c>
@@ -2213,7 +2212,7 @@
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
     </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>4</v>
       </c>
@@ -2232,7 +2231,7 @@
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>5</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="I34" s="47"/>
     </row>
-    <row r="35" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>4</v>
       </c>
@@ -2270,7 +2269,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>5</v>
       </c>
@@ -2289,7 +2288,7 @@
       </c>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>5</v>
       </c>
@@ -2308,7 +2307,7 @@
       </c>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>4</v>
       </c>
@@ -2327,7 +2326,7 @@
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>5</v>
       </c>
@@ -2346,7 +2345,7 @@
       </c>
       <c r="I39" s="47"/>
     </row>
-    <row r="40" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>2</v>
       </c>
@@ -2365,7 +2364,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>3</v>
       </c>
@@ -2384,7 +2383,7 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>4</v>
       </c>
@@ -2403,7 +2402,7 @@
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
     </row>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>5</v>
       </c>
@@ -2422,7 +2421,7 @@
       </c>
       <c r="I43" s="47"/>
     </row>
-    <row r="44" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>5</v>
       </c>
@@ -2441,7 +2440,7 @@
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <v>2</v>
       </c>
@@ -2460,7 +2459,7 @@
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
     </row>
-    <row r="46" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>1</v>
       </c>
@@ -2479,7 +2478,7 @@
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
     </row>
-    <row r="47" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <v>2</v>
       </c>
@@ -2498,7 +2497,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>2</v>
       </c>
@@ -2517,7 +2516,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
-    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>3</v>
       </c>
@@ -2536,7 +2535,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>4</v>
       </c>
@@ -2555,7 +2554,7 @@
       <c r="H50" s="46"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>5</v>
       </c>
@@ -2574,7 +2573,7 @@
       </c>
       <c r="I51" s="47"/>
     </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>5</v>
       </c>
@@ -2593,7 +2592,7 @@
       </c>
       <c r="I52" s="47"/>
     </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>5</v>
       </c>
@@ -2612,7 +2611,7 @@
       </c>
       <c r="I53" s="47"/>
     </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>5</v>
       </c>
@@ -2631,7 +2630,7 @@
       </c>
       <c r="I54" s="47"/>
     </row>
-    <row r="55" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>5</v>
       </c>
@@ -2650,7 +2649,7 @@
       </c>
       <c r="I55" s="47"/>
     </row>
-    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>1</v>
       </c>
@@ -2669,7 +2668,7 @@
       <c r="H56" s="43"/>
       <c r="I56" s="43"/>
     </row>
-    <row r="57" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <v>2</v>
       </c>
@@ -2688,7 +2687,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>3</v>
       </c>
@@ -2707,7 +2706,7 @@
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>4</v>
       </c>
@@ -2726,7 +2725,7 @@
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>5</v>
       </c>
@@ -2745,7 +2744,7 @@
       </c>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>5</v>
       </c>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>5</v>
       </c>
@@ -2783,7 +2782,7 @@
       </c>
       <c r="I62" s="47"/>
     </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>5</v>
       </c>
@@ -2802,7 +2801,7 @@
       </c>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>5</v>
       </c>
@@ -2821,7 +2820,7 @@
       </c>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>5</v>
       </c>
@@ -2840,7 +2839,7 @@
       </c>
       <c r="I65" s="47"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>5</v>
       </c>
@@ -2859,7 +2858,7 @@
       </c>
       <c r="I66" s="47"/>
     </row>
-    <row r="67" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>5</v>
       </c>
@@ -2878,7 +2877,7 @@
       </c>
       <c r="I67" s="47"/>
     </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>5</v>
       </c>
@@ -2897,7 +2896,7 @@
       </c>
       <c r="I68" s="47"/>
     </row>
-    <row r="69" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>5</v>
       </c>
@@ -2916,7 +2915,7 @@
       </c>
       <c r="I69" s="47"/>
     </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>5</v>
       </c>
@@ -2935,7 +2934,7 @@
       </c>
       <c r="I70" s="47"/>
     </row>
-    <row r="71" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>5</v>
       </c>
@@ -2954,7 +2953,7 @@
       </c>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>3</v>
       </c>
@@ -2973,7 +2972,7 @@
       <c r="H72" s="45"/>
       <c r="I72" s="45"/>
     </row>
-    <row r="73" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>4</v>
       </c>
@@ -2992,7 +2991,7 @@
       <c r="H73" s="46"/>
       <c r="I73" s="46"/>
     </row>
-    <row r="74" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>5</v>
       </c>
@@ -3011,7 +3010,7 @@
       </c>
       <c r="I74" s="47"/>
     </row>
-    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>4</v>
       </c>
@@ -3030,7 +3029,7 @@
       <c r="H75" s="46"/>
       <c r="I75" s="46"/>
     </row>
-    <row r="76" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>5</v>
       </c>
@@ -3049,7 +3048,7 @@
       </c>
       <c r="I76" s="47"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>1</v>
       </c>
@@ -3058,33 +3057,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I77" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I77"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.14453125" style="27"/>
-    <col min="2" max="2" width="14.390625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22.734375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="9.14453125" style="24"/>
-    <col min="7" max="7" width="10.89453125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.43359375" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.14453125" style="24"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="24"/>
+    <col min="7" max="7" width="10.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
         <v>45</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>35</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
         <v>37</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
         <v>40</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>43</v>
       </c>
@@ -3232,7 +3231,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:D12">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -3246,20 +3245,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.24609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="21">
         <f>SUM(B3:B1000000)</f>
@@ -3268,7 +3267,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -3295,23 +3294,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.14453125" style="1"/>
-    <col min="2" max="3" width="18.16015625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.50390625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14453125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3334,27 +3333,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.95703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.64453125" style="87" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" style="88" customWidth="1"/>
-    <col min="4" max="4" width="11.97265625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="9.14453125" style="47"/>
-    <col min="6" max="6" width="68.60546875" style="90" customWidth="1"/>
-    <col min="7" max="16384" width="9.14453125" style="18"/>
+    <col min="1" max="1" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="87" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="88" customWidth="1"/>
+    <col min="4" max="4" width="12" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="47"/>
+    <col min="6" max="6" width="68.5703125" style="90" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="79">
         <f>SUM(B3:B1000000)</f>
         <v>1926</v>
@@ -3365,7 +3364,7 @@
       </c>
       <c r="D1" s="89"/>
     </row>
-    <row r="2" spans="1:6" s="81" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="81" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>71</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>54</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -4335,8 +4334,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="214" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="153" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -4348,7 +4347,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>دليل!$K$1:$K$3</xm:f>
           </x14:formula1>
